--- a/lab2.xlsx
+++ b/lab2.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TonyTonyChopper\Desktop\Kiểm thử(học)\buổi 2\bài tập\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454FB5D6-3B14-49E0-B281-7AD34DAA4898}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B976FE4C-F597-47FF-A770-1959B2C653F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 1" sheetId="1" r:id="rId1"/>
     <sheet name="Bài 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="bài 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Bài 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Bài 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="166">
   <si>
     <t>Test case ID</t>
   </si>
@@ -345,6 +347,186 @@
   </si>
   <si>
     <t>Thời gian không hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm thử chức năng xác định giá vé dựa trên chiều cao người dùng</t>
+  </si>
+  <si>
+    <t>Người dùng truy cập vào website bán vé</t>
+  </si>
+  <si>
+    <t>Trường nhập chiều cao hiển thị và hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Hệ thống chưa xảy ra lỗi trước khi kiểm thử</t>
+  </si>
+  <si>
+    <t>Người dùng có thể nhập dữ liệu từ bàn phím</t>
+  </si>
+  <si>
+    <t>Chiều cao = 30</t>
+  </si>
+  <si>
+    <t>Chiều cao = 70</t>
+  </si>
+  <si>
+    <t>Chiều cao = 120</t>
+  </si>
+  <si>
+    <t>Chiều cao = 170</t>
+  </si>
+  <si>
+    <t>Chiều cao = 210</t>
+  </si>
+  <si>
+    <t>Chiều cao = -10</t>
+  </si>
+  <si>
+    <t>Chiều cao = abc</t>
+  </si>
+  <si>
+    <t>Miễn phí</t>
+  </si>
+  <si>
+    <t>40 ≤ Chiều cao ≤ 99 (Miễn phí vé)</t>
+  </si>
+  <si>
+    <t>100 ≤ Chiều cao ≤ 140 (Giá vé 150.000)</t>
+  </si>
+  <si>
+    <t>141 ≤ Chiều cao ≤ 200 (Giá vé 300.000)</t>
+  </si>
+  <si>
+    <t>IV1</t>
+  </si>
+  <si>
+    <t>Chiều cao &lt; 40</t>
+  </si>
+  <si>
+    <t>IV2</t>
+  </si>
+  <si>
+    <t>Chiều cao &gt; 200</t>
+  </si>
+  <si>
+    <t>IV3</t>
+  </si>
+  <si>
+    <t>Chiều cao là số âm</t>
+  </si>
+  <si>
+    <t>IV4</t>
+  </si>
+  <si>
+    <t>Chiều cao không phải số (chữ, ký tự đặc biệt)</t>
+  </si>
+  <si>
+    <t>IV5</t>
+  </si>
+  <si>
+    <t>Chiều cao nhỏ hơn 40</t>
+  </si>
+  <si>
+    <t>Chiều cao từ 40–99</t>
+  </si>
+  <si>
+    <t>Chiều cao từ 100–140</t>
+  </si>
+  <si>
+    <t>Chiều cao từ 141–200</t>
+  </si>
+  <si>
+    <t>Chiều cao âm</t>
+  </si>
+  <si>
+    <t>Nhập ký tự</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>ID4</t>
+  </si>
+  <si>
+    <t>Kiểm thử chức năng xác định mức giảm giá dựa trên ngày nhập vào</t>
+  </si>
+  <si>
+    <t>Người dùng truy cập vào website của siêu thị</t>
+  </si>
+  <si>
+    <t>Trường nhập ngày hiển thị và hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Hệ thống không xảy ra lỗi trước khi kiểm thử</t>
+  </si>
+  <si>
+    <t>Ngày = 18</t>
+  </si>
+  <si>
+    <t>Ngày = 22</t>
+  </si>
+  <si>
+    <t>Ngày = 27</t>
+  </si>
+  <si>
+    <t>Ngày = 30</t>
+  </si>
+  <si>
+    <t>Ngày = 31</t>
+  </si>
+  <si>
+    <t>Ngày = -5</t>
+  </si>
+  <si>
+    <t>Ngày = abc</t>
+  </si>
+  <si>
+    <t>20 ≤ Ngày ≤ 25 (Giảm giá 50%)</t>
+  </si>
+  <si>
+    <t>26 ≤ Ngày ≤ 30 (Giảm giá 70%)</t>
+  </si>
+  <si>
+    <t>Ngày &lt; 20</t>
+  </si>
+  <si>
+    <t>Ngày &gt; 30</t>
+  </si>
+  <si>
+    <t>Ngày là số âm</t>
+  </si>
+  <si>
+    <t>Ngày không phải số</t>
+  </si>
+  <si>
+    <t>Ngày nhỏ hơn 20</t>
+  </si>
+  <si>
+    <t>Ngày từ 20–25</t>
+  </si>
+  <si>
+    <t>Giảm giá 50%</t>
+  </si>
+  <si>
+    <t>Ngày từ 26–30</t>
+  </si>
+  <si>
+    <t>Giảm giá 70%</t>
+  </si>
+  <si>
+    <t>Ngày biên trên</t>
+  </si>
+  <si>
+    <t>Ngày lớn hơn 30</t>
+  </si>
+  <si>
+    <t>Ngày âm</t>
   </si>
 </sst>
 </file>
@@ -483,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -527,6 +709,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -562,10 +747,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1011,78 +1205,78 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="20">
         <v>0</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="20">
         <v>50</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="21">
         <v>0.03</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="20">
         <v>500</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="21">
         <v>0.05</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="20">
         <v>1500</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E22" s="8"/>
@@ -1105,7 +1299,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1180,148 +1374,148 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="29">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="28">
+      <c r="E9" s="29">
         <v>1</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="29">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="28">
+      <c r="E10" s="29">
         <v>2</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="28" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="29">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="29">
         <v>3</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="29">
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="29">
         <v>4</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="A13" s="29">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="29">
         <v>5</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="28" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E14" s="28">
+      <c r="E14" s="29">
         <v>6</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="E19" s="21" t="s">
+      <c r="B19" s="27"/>
+      <c r="E19" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1342,106 +1536,106 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="24">
         <v>12345</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="24">
         <v>123456</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="24">
         <v>1234567890</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="24">
         <v>12345678901</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="24" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1459,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8CD132-9744-468E-BBDF-4156D4D9E3F7}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1535,176 +1729,176 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="29">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="28">
+      <c r="E9" s="29">
         <v>1</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="28" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="29">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="28">
+      <c r="E10" s="29">
         <v>2</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="28" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="29">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="29">
         <v>3</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="29">
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="29">
         <v>4</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="A13" s="29">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="29">
         <v>5</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="28" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E14" s="28">
+      <c r="E14" s="29">
         <v>6</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" s="28">
+      <c r="E15" s="29">
         <v>7</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="28" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E16" s="28">
+      <c r="E16" s="29">
         <v>8</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="E19" s="21" t="s">
+      <c r="B19" s="22"/>
+      <c r="E19" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="30" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="2"/>
@@ -1727,136 +1921,932 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="31">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="28" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="31">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="28" t="s">
         <v>97</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="31">
         <v>0.625</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="28" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="31">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="31">
         <v>0.75</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="31">
         <v>0.8125</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="31">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="28" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="32">
         <v>1.0416666666666667</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="28" t="s">
         <v>37</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15255303-182E-4494-A2EE-F8C6C76942BE}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A27:A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12">
+        <v>46028</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>2</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="29">
+        <v>2</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>3</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="29">
+        <v>3</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>4</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="29">
+        <v>4</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="E13" s="29">
+        <v>5</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="29">
+        <v>6</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="29">
+        <v>7</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="E19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E23" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="29">
+        <v>30</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="29">
+        <v>70</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="29">
+        <v>120</v>
+      </c>
+      <c r="D29" s="29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="29">
+        <v>170</v>
+      </c>
+      <c r="D30" s="29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="29">
+        <v>210</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="29">
+        <v>-10</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A2F71-185E-48B2-B916-24D9CF20A55E}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12">
+        <v>46028</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>2</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="29">
+        <v>2</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>3</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="29">
+        <v>3</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>4</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="29">
+        <v>4</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="E13" s="29">
+        <v>5</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="29">
+        <v>6</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="29">
+        <v>7</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="E19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="E22" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="29">
+        <v>18</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="29">
+        <v>22</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="29">
+        <v>27</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="29">
+        <v>30</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="29">
+        <v>31</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="29">
+        <v>-5</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/lab2.xlsx
+++ b/lab2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TonyTonyChopper\Desktop\Kiểm thử(học)\buổi 2\bài tập\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B976FE4C-F597-47FF-A770-1959B2C653F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C810E8D-4C44-488D-9628-A58492F6E461}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bài 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="bài 3" sheetId="3" r:id="rId3"/>
     <sheet name="Bài 4" sheetId="4" r:id="rId4"/>
     <sheet name="Bài 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Bài 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Bài 7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="230">
   <si>
     <t>Test case ID</t>
   </si>
@@ -527,6 +529,198 @@
   </si>
   <si>
     <t>Ngày âm</t>
+  </si>
+  <si>
+    <t>ID5</t>
+  </si>
+  <si>
+    <t>ID6</t>
+  </si>
+  <si>
+    <t>Kiểm thử ô nhập số nguyên theo độ dài ký tự cho phép</t>
+  </si>
+  <si>
+    <t>Người dùng truy cập vào chức năng nhập dữ liệu</t>
+  </si>
+  <si>
+    <t>Trường nhập số hiển thị và hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Không có lỗi hệ thống trước khi kiểm thử</t>
+  </si>
+  <si>
+    <t>12@45</t>
+  </si>
+  <si>
+    <t>Độ dài từ 1 đến 10 ký tự, là số nguyên</t>
+  </si>
+  <si>
+    <t>Độ dài từ 20 đến 30 ký tự, là số nguyên</t>
+  </si>
+  <si>
+    <t>Độ dài nhỏ hơn 1</t>
+  </si>
+  <si>
+    <t>Độ dài lớn hơn 10 và nhỏ hơn 20</t>
+  </si>
+  <si>
+    <t>Độ dài lớn hơn 30</t>
+  </si>
+  <si>
+    <t>Độ dài &lt; 1</t>
+  </si>
+  <si>
+    <t>Độ dài hợp lệ [1–10]</t>
+  </si>
+  <si>
+    <t>Biên trên vùng [1–10]</t>
+  </si>
+  <si>
+    <t>Độ dài (11–19)</t>
+  </si>
+  <si>
+    <t>Độ dài hợp lệ [20–30]</t>
+  </si>
+  <si>
+    <t>Biên trên vùng [20–30]</t>
+  </si>
+  <si>
+    <t>Độ dài &gt; 30</t>
+  </si>
+  <si>
+    <t>Chứa chữ</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>Chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Xây dựng tập dữ liệu kiểm thử cho chương trình phân tích file sinh viên</t>
+  </si>
+  <si>
+    <t>File dữ liệu tồn tại và có thể truy cập</t>
+  </si>
+  <si>
+    <t>Chương trình đọc file hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Định dạng file đúng theo mô tả</t>
+  </si>
+  <si>
+    <t>An,M,8,7,6,9,8</t>
+  </si>
+  <si>
+    <t>Bình,F,5,6,5,6,5</t>
+  </si>
+  <si>
+    <t>Chi,M,4,5,4,5,4</t>
+  </si>
+  <si>
+    <t>Dũng,M,10,10,10,10,10</t>
+  </si>
+  <si>
+    <t>Hoa,F,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>Long,F,11,8,7,6,5</t>
+  </si>
+  <si>
+    <t>Minh,M,8,7,-1,6,5</t>
+  </si>
+  <si>
+    <t>Trang,X,7,8,9,6,5</t>
+  </si>
+  <si>
+    <t>(Tên quá 20 ký tự),M,8,7,6,5,4</t>
+  </si>
+  <si>
+    <t>(File &gt; 100 dòng)</t>
+  </si>
+  <si>
+    <t>Số dòng ≤ 100</t>
+  </si>
+  <si>
+    <t>Tên sinh viên ≤ 20 ký tự</t>
+  </si>
+  <si>
+    <t>Giới tính là 1 ký tự hợp lệ (M/F)</t>
+  </si>
+  <si>
+    <t>Điểm mỗi môn trong khoảng 0–10</t>
+  </si>
+  <si>
+    <t>Điểm trung bình &gt; 5 (Sinh viên lên lớp)</t>
+  </si>
+  <si>
+    <t>File có hơn 100 dòng</t>
+  </si>
+  <si>
+    <t>Tên sinh viên &gt; 20 ký tự</t>
+  </si>
+  <si>
+    <t>Giới tính không hợp lệ</t>
+  </si>
+  <si>
+    <t>Điểm &lt; 0 hoặc &gt; 10</t>
+  </si>
+  <si>
+    <t>Thiếu dữ liệu trong một dòng</t>
+  </si>
+  <si>
+    <t>IV6</t>
+  </si>
+  <si>
+    <t>Sai định dạng file</t>
+  </si>
+  <si>
+    <t>Dữ liệu hợp lệ</t>
+  </si>
+  <si>
+    <t>Sinh viên lên lớp</t>
+  </si>
+  <si>
+    <t>Điểm TB = 5</t>
+  </si>
+  <si>
+    <t>Không lên lớp</t>
+  </si>
+  <si>
+    <t>Điểm thấp</t>
+  </si>
+  <si>
+    <t>Điểm tối đa</t>
+  </si>
+  <si>
+    <t>Lên lớp</t>
+  </si>
+  <si>
+    <t>Điểm bằng 0</t>
+  </si>
+  <si>
+    <t>Điểm &gt; 10</t>
+  </si>
+  <si>
+    <t>Điểm âm</t>
+  </si>
+  <si>
+    <t>Giới tính sai</t>
+  </si>
+  <si>
+    <t>Tên quá dài</t>
+  </si>
+  <si>
+    <t>&gt;20 ký tự</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>File &gt; 100 dòng</t>
+  </si>
+  <si>
+    <t>File lớn</t>
   </si>
 </sst>
 </file>
@@ -1653,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8CD132-9744-468E-BBDF-4156D4D9E3F7}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2466,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A2F71-185E-48B2-B916-24D9CF20A55E}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2484,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2856,4 +3050,905 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997A75B1-1878-451F-89F8-0BE14655314A}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12">
+        <v>46028</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>2</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="29">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>3</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="29">
+        <v>3</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>4</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="29">
+        <v>4</v>
+      </c>
+      <c r="F12" s="29">
+        <v>12345678901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="E13" s="29">
+        <v>5</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1.23456789012345E+19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="29">
+        <v>6</v>
+      </c>
+      <c r="F14" s="29">
+        <v>1.2345678901234499E+29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="29">
+        <v>7</v>
+      </c>
+      <c r="F15" s="29">
+        <v>1.23456789012345E+30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="29">
+        <v>8</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="29">
+        <v>9</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="E19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="E22" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="29">
+        <v>12345</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="29">
+        <v>1234567890</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="29">
+        <v>12345678901</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="29">
+        <v>1.23456789012345E+19</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="29">
+        <v>1.2345678901234499E+29</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="29">
+        <v>1.23456789012345E+30</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3108B8-BC35-4C37-AD6F-E005F27DD75E}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="57.21875" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12">
+        <v>46028</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="29">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>3</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="29">
+        <v>3</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>4</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="29">
+        <v>4</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="E13" s="29">
+        <v>5</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="29">
+        <v>6</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="29">
+        <v>7</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="29">
+        <v>8</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="29">
+        <v>9</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="29">
+        <v>10</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="E21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="8"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>